--- a/natmiOut/OldD0/LR-pairs_lrc2p/Adam23-Itga4.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Adam23-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.111284246337168</v>
+        <v>0.1145763333333333</v>
       </c>
       <c r="H2">
-        <v>0.111284246337168</v>
+        <v>0.343729</v>
       </c>
       <c r="I2">
-        <v>0.006605758224220992</v>
+        <v>0.006557053879060051</v>
       </c>
       <c r="J2">
-        <v>0.006605758224220992</v>
+        <v>0.006557053879060051</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.7518420399383</v>
+        <v>26.04517333333333</v>
       </c>
       <c r="N2">
-        <v>2.7518420399383</v>
+        <v>78.13552</v>
       </c>
       <c r="O2">
-        <v>0.5964074284397364</v>
+        <v>0.9210237118384171</v>
       </c>
       <c r="P2">
-        <v>0.5964074284397364</v>
+        <v>0.921023711838417</v>
       </c>
       <c r="Q2">
-        <v>0.3062366674534687</v>
+        <v>2.984160461564444</v>
       </c>
       <c r="R2">
-        <v>0.3062366674534687</v>
+        <v>26.85744415408</v>
       </c>
       <c r="S2">
-        <v>0.003939723275402282</v>
+        <v>0.00603920210241638</v>
       </c>
       <c r="T2">
-        <v>0.003939723275402282</v>
+        <v>0.006039202102416379</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.111284246337168</v>
+        <v>0.1145763333333333</v>
       </c>
       <c r="H3">
-        <v>0.111284246337168</v>
+        <v>0.343729</v>
       </c>
       <c r="I3">
-        <v>0.006605758224220992</v>
+        <v>0.006557053879060051</v>
       </c>
       <c r="J3">
-        <v>0.006605758224220992</v>
+        <v>0.006557053879060051</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>1.86218841762559</v>
+        <v>0.3302223333333333</v>
       </c>
       <c r="N3">
-        <v>1.86218841762559</v>
+        <v>0.990667</v>
       </c>
       <c r="O3">
-        <v>0.4035925715602636</v>
+        <v>0.01167750336256582</v>
       </c>
       <c r="P3">
-        <v>0.4035925715602636</v>
+        <v>0.01167750336256582</v>
       </c>
       <c r="Q3">
-        <v>0.2072322345932673</v>
+        <v>0.03783566413811111</v>
       </c>
       <c r="R3">
-        <v>0.2072322345932673</v>
+        <v>0.340520977243</v>
       </c>
       <c r="S3">
-        <v>0.002666034948818711</v>
+        <v>7.657001872124902E-05</v>
       </c>
       <c r="T3">
-        <v>0.002666034948818711</v>
+        <v>7.657001872124902E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.966737813242499</v>
+        <v>0.1145763333333333</v>
       </c>
       <c r="H4">
-        <v>8.966737813242499</v>
+        <v>0.343729</v>
       </c>
       <c r="I4">
-        <v>0.5322595426022755</v>
+        <v>0.006557053879060051</v>
       </c>
       <c r="J4">
-        <v>0.5322595426022755</v>
+        <v>0.006557053879060051</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.7518420399383</v>
+        <v>1.903109</v>
       </c>
       <c r="N4">
-        <v>2.7518420399383</v>
+        <v>5.709327</v>
       </c>
       <c r="O4">
-        <v>0.5964074284397364</v>
+        <v>0.06729878479901708</v>
       </c>
       <c r="P4">
-        <v>0.5964074284397364</v>
+        <v>0.06729878479901708</v>
       </c>
       <c r="Q4">
-        <v>24.67504607558513</v>
+        <v>0.2180512511536666</v>
       </c>
       <c r="R4">
-        <v>24.67504607558513</v>
+        <v>1.962461260383</v>
       </c>
       <c r="S4">
-        <v>0.3174435450659334</v>
+        <v>0.0004412817579224225</v>
       </c>
       <c r="T4">
-        <v>0.3174435450659334</v>
+        <v>0.0004412817579224225</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.966737813242499</v>
+        <v>9.390663666666667</v>
       </c>
       <c r="H5">
-        <v>8.966737813242499</v>
+        <v>28.171991</v>
       </c>
       <c r="I5">
-        <v>0.5322595426022755</v>
+        <v>0.5374154140831726</v>
       </c>
       <c r="J5">
-        <v>0.5322595426022755</v>
+        <v>0.5374154140831726</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.86218841762559</v>
+        <v>26.04517333333333</v>
       </c>
       <c r="N5">
-        <v>1.86218841762559</v>
+        <v>78.13552</v>
       </c>
       <c r="O5">
-        <v>0.4035925715602636</v>
+        <v>0.9210237118384171</v>
       </c>
       <c r="P5">
-        <v>0.4035925715602636</v>
+        <v>0.921023711838417</v>
       </c>
       <c r="Q5">
-        <v>16.69775529970559</v>
+        <v>244.5814629133689</v>
       </c>
       <c r="R5">
-        <v>16.69775529970559</v>
+        <v>2201.23316622032</v>
       </c>
       <c r="S5">
-        <v>0.214815997536342</v>
+        <v>0.4949723394780636</v>
       </c>
       <c r="T5">
-        <v>0.214815997536342</v>
+        <v>0.4949723394780635</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,60 +773,60 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.76852947316154</v>
+        <v>9.390663666666667</v>
       </c>
       <c r="H6">
-        <v>7.76852947316154</v>
+        <v>28.171991</v>
       </c>
       <c r="I6">
-        <v>0.4611346991735034</v>
+        <v>0.5374154140831726</v>
       </c>
       <c r="J6">
-        <v>0.4611346991735034</v>
+        <v>0.5374154140831726</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>2.7518420399383</v>
+        <v>0.3302223333333333</v>
       </c>
       <c r="N6">
-        <v>2.7518420399383</v>
+        <v>0.990667</v>
       </c>
       <c r="O6">
-        <v>0.5964074284397364</v>
+        <v>0.01167750336256582</v>
       </c>
       <c r="P6">
-        <v>0.5964074284397364</v>
+        <v>0.01167750336256582</v>
       </c>
       <c r="Q6">
-        <v>21.37776599274566</v>
+        <v>3.101006867555222</v>
       </c>
       <c r="R6">
-        <v>21.37776599274566</v>
+        <v>27.909061807997</v>
       </c>
       <c r="S6">
-        <v>0.2750241600984006</v>
+        <v>0.006275670305050953</v>
       </c>
       <c r="T6">
-        <v>0.2750241600984006</v>
+        <v>0.006275670305050953</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.76852947316154</v>
+        <v>9.390663666666667</v>
       </c>
       <c r="H7">
-        <v>7.76852947316154</v>
+        <v>28.171991</v>
       </c>
       <c r="I7">
-        <v>0.4611346991735034</v>
+        <v>0.5374154140831726</v>
       </c>
       <c r="J7">
-        <v>0.4611346991735034</v>
+        <v>0.5374154140831726</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.86218841762559</v>
+        <v>1.903109</v>
       </c>
       <c r="N7">
-        <v>1.86218841762559</v>
+        <v>5.709327</v>
       </c>
       <c r="O7">
-        <v>0.4035925715602636</v>
+        <v>0.06729878479901708</v>
       </c>
       <c r="P7">
-        <v>0.4035925715602636</v>
+        <v>0.06729878479901708</v>
       </c>
       <c r="Q7">
-        <v>14.46646560690445</v>
+        <v>17.87145654000633</v>
       </c>
       <c r="R7">
-        <v>14.46646560690445</v>
+        <v>160.843108860057</v>
       </c>
       <c r="S7">
-        <v>0.1861105390751028</v>
+        <v>0.03616740430005808</v>
       </c>
       <c r="T7">
-        <v>0.1861105390751028</v>
+        <v>0.03616740430005808</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>7.968512</v>
+      </c>
+      <c r="H8">
+        <v>23.905536</v>
+      </c>
+      <c r="I8">
+        <v>0.4560275320377672</v>
+      </c>
+      <c r="J8">
+        <v>0.4560275320377672</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>26.04517333333333</v>
+      </c>
+      <c r="N8">
+        <v>78.13552</v>
+      </c>
+      <c r="O8">
+        <v>0.9210237118384171</v>
+      </c>
+      <c r="P8">
+        <v>0.921023711838417</v>
+      </c>
+      <c r="Q8">
+        <v>207.5412762487467</v>
+      </c>
+      <c r="R8">
+        <v>1867.87148623872</v>
+      </c>
+      <c r="S8">
+        <v>0.4200121702579371</v>
+      </c>
+      <c r="T8">
+        <v>0.420012170257937</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>7.968512</v>
+      </c>
+      <c r="H9">
+        <v>23.905536</v>
+      </c>
+      <c r="I9">
+        <v>0.4560275320377672</v>
+      </c>
+      <c r="J9">
+        <v>0.4560275320377672</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.3302223333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.990667</v>
+      </c>
+      <c r="O9">
+        <v>0.01167750336256582</v>
+      </c>
+      <c r="P9">
+        <v>0.01167750336256582</v>
+      </c>
+      <c r="Q9">
+        <v>2.631380625834666</v>
+      </c>
+      <c r="R9">
+        <v>23.682425632512</v>
+      </c>
+      <c r="S9">
+        <v>0.00532526303879362</v>
+      </c>
+      <c r="T9">
+        <v>0.00532526303879362</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>7.968512</v>
+      </c>
+      <c r="H10">
+        <v>23.905536</v>
+      </c>
+      <c r="I10">
+        <v>0.4560275320377672</v>
+      </c>
+      <c r="J10">
+        <v>0.4560275320377672</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.903109</v>
+      </c>
+      <c r="N10">
+        <v>5.709327</v>
+      </c>
+      <c r="O10">
+        <v>0.06729878479901708</v>
+      </c>
+      <c r="P10">
+        <v>0.06729878479901708</v>
+      </c>
+      <c r="Q10">
+        <v>15.164946903808</v>
+      </c>
+      <c r="R10">
+        <v>136.484522134272</v>
+      </c>
+      <c r="S10">
+        <v>0.03069009874103656</v>
+      </c>
+      <c r="T10">
+        <v>0.03069009874103656</v>
       </c>
     </row>
   </sheetData>
